--- a/xls/14048-169-240032314_2.xlsx
+++ b/xls/14048-169-240032314_2.xlsx
@@ -699,12 +699,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวเชียถนอม</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าวัคซีนที่สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าติดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
